--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>8.771033591430177E-20</v>
+        <v>5.025582221945488E-27</v>
       </c>
       <c r="E2">
-        <v>8.771033591430177E-20</v>
+        <v>5.025582221945488E-27</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -461,10 +461,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999978251</v>
+        <v>0.9999999999998366</v>
       </c>
       <c r="E3">
-        <v>0.9999999999978251</v>
+        <v>0.9999999999998366</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -475,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.806277070888302E-14</v>
+        <v>2.154099554096399E-11</v>
       </c>
       <c r="E4">
-        <v>0.999999999999922</v>
+        <v>0.999999999978459</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -489,10 +489,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999998</v>
+        <v>0.9998972496033501</v>
       </c>
       <c r="E5">
-        <v>2.220446049250313E-16</v>
+        <v>0.0001027503966498644</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -503,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007029933320338571</v>
+        <v>0.0004645161766664019</v>
       </c>
       <c r="E6">
-        <v>0.9929700666796615</v>
+        <v>0.9995354838233336</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -517,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.930608779245401E-23</v>
+        <v>6.310016853228153E-16</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -531,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.931040991846436E-16</v>
+        <v>6.608936468993912E-14</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999339</v>
       </c>
       <c r="F8">
-        <v>21.36289596557617</v>
+        <v>18.14642906188965</v>
       </c>
       <c r="G8">
         <v>0.2857142857142857</v>
